--- a/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867FD8B9-474C-4811-8690-15CC93036EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7707BAB-D9E4-41F2-AE43-D2AA5DA34A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B169BA7-8508-4BC9-A8A6-3B79C0EB7946}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CDC684E-2799-4478-83EF-D19950A909C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="688">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -272,10 +272,10 @@
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>77,91%</t>
@@ -284,1705 +284,1735 @@
     <t>74,13%</t>
   </si>
   <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2013,9 +2043,6 @@
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -2487,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7303D460-994A-4E5B-9087-31C5A67B3AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D003A89-E4D5-4E2F-A3E2-235DEBB7B97D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5395,7 +5422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739C7CD-1AF5-4AD5-BCED-65C19DEBCBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E37B18-5916-415D-9E76-F66025CFC199}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6593,10 +6620,10 @@
         <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6638,13 @@
         <v>180281</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -6626,13 +6653,13 @@
         <v>124125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -6641,13 +6668,13 @@
         <v>304406</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,22 +6748,22 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6766,13 +6793,13 @@
         <v>132351</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -6781,13 +6808,13 @@
         <v>165035</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>282</v>
@@ -6796,13 +6823,13 @@
         <v>297386</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,10 +6844,10 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>198</v>
@@ -6898,13 +6925,13 @@
         <v>26538</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6946,13 @@
         <v>49583</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6934,13 +6961,13 @@
         <v>20435</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>65</v>
@@ -6949,13 +6976,13 @@
         <v>70017</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7056,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7074,13 +7101,13 @@
         <v>162973</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>219</v>
@@ -7089,13 +7116,13 @@
         <v>226662</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>377</v>
@@ -7104,13 +7131,13 @@
         <v>389635</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,10 +7155,10 @@
         <v>88</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -7140,13 +7167,13 @@
         <v>5039</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7155,13 +7182,13 @@
         <v>12809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7203,13 @@
         <v>20707</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -7191,13 +7218,13 @@
         <v>6136</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -7206,13 +7233,13 @@
         <v>26843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7254,13 @@
         <v>82531</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>39</v>
@@ -7242,13 +7269,13 @@
         <v>42193</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>116</v>
@@ -7257,13 +7284,13 @@
         <v>124725</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7409,13 @@
         <v>401660</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H41" s="7">
         <v>475</v>
@@ -7397,13 +7424,13 @@
         <v>521579</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M41" s="7">
         <v>849</v>
@@ -7412,13 +7439,13 @@
         <v>923239</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7460,13 @@
         <v>37506</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -7448,13 +7475,13 @@
         <v>30114</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -7463,13 +7490,13 @@
         <v>67620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7511,13 @@
         <v>42738</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H43" s="7">
         <v>35</v>
@@ -7499,13 +7526,13 @@
         <v>37638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -7514,13 +7541,13 @@
         <v>80376</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7562,13 @@
         <v>180884</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>178</v>
+        <v>279</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -7550,13 +7577,13 @@
         <v>104522</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="M44" s="7">
         <v>269</v>
@@ -7565,13 +7592,13 @@
         <v>285407</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7660,7 +7687,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7690,13 +7717,13 @@
         <v>423030</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H47" s="7">
         <v>527</v>
@@ -7705,13 +7732,13 @@
         <v>570399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M47" s="7">
         <v>913</v>
@@ -7720,13 +7747,13 @@
         <v>993429</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7768,13 @@
         <v>44788</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -7756,13 +7783,13 @@
         <v>37550</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -7771,13 +7798,13 @@
         <v>82338</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7819,13 @@
         <v>58769</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7807,13 +7834,13 @@
         <v>43084</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M49" s="7">
         <v>93</v>
@@ -7822,13 +7849,13 @@
         <v>101853</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7870,13 @@
         <v>252511</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H50" s="7">
         <v>158</v>
@@ -7858,13 +7885,13 @@
         <v>172820</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M50" s="7">
         <v>395</v>
@@ -7873,13 +7900,13 @@
         <v>425331</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +8025,13 @@
         <v>2047887</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H53" s="7">
         <v>2463</v>
@@ -8013,13 +8040,13 @@
         <v>2653726</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M53" s="7">
         <v>4376</v>
@@ -8028,13 +8055,13 @@
         <v>4701612</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8076,13 @@
         <v>184033</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H54" s="7">
         <v>138</v>
@@ -8064,13 +8091,13 @@
         <v>154458</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M54" s="7">
         <v>309</v>
@@ -8079,13 +8106,13 @@
         <v>338491</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8127,13 @@
         <v>215180</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H55" s="7">
         <v>149</v>
@@ -8115,10 +8142,10 @@
         <v>158026</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>173</v>
@@ -8130,13 +8157,13 @@
         <v>373205</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,13 +8178,13 @@
         <v>979680</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H56" s="7">
         <v>548</v>
@@ -8166,13 +8193,13 @@
         <v>592100</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M56" s="7">
         <v>1471</v>
@@ -8181,13 +8208,13 @@
         <v>1571779</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D71F66C-5427-4C8B-812E-D796F689FA8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FCA463-B414-42A2-9EDB-1F9BB85AB7CD}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8284,7 +8311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8412,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8427,7 +8454,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8469,13 @@
         <v>157595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>179</v>
@@ -8457,13 +8484,13 @@
         <v>187728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -8472,13 +8499,13 @@
         <v>345323</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8520,13 @@
         <v>50691</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -8508,13 +8535,13 @@
         <v>29617</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -8523,13 +8550,13 @@
         <v>80308</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8571,13 @@
         <v>18578</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -8559,13 +8586,13 @@
         <v>24626</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -8574,13 +8601,13 @@
         <v>43204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,13 +8622,13 @@
         <v>66897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -8610,13 +8637,13 @@
         <v>46733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -8625,13 +8652,13 @@
         <v>113630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8750,13 +8777,13 @@
         <v>332278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>392</v>
+        <v>294</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -8765,13 +8792,13 @@
         <v>409404</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>693</v>
@@ -8780,13 +8807,13 @@
         <v>741682</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,13 +8828,13 @@
         <v>38830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8816,13 +8843,13 @@
         <v>28627</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -8831,13 +8858,13 @@
         <v>67458</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,13 +8879,13 @@
         <v>39740</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -8867,13 +8894,13 @@
         <v>25617</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -8882,13 +8909,13 @@
         <v>65357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8903,13 +8930,13 @@
         <v>91727</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -8918,13 +8945,13 @@
         <v>59436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -8933,13 +8960,13 @@
         <v>151163</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9043,7 +9070,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,13 +9085,13 @@
         <v>192181</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -9073,13 +9100,13 @@
         <v>251976</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -9088,13 +9115,13 @@
         <v>444157</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,13 +9136,13 @@
         <v>30673</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9124,13 +9151,13 @@
         <v>20812</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -9139,10 +9166,10 @@
         <v>51485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>440</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>442</v>
@@ -9166,7 +9193,7 @@
         <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -9175,13 +9202,13 @@
         <v>26345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -9190,13 +9217,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9211,13 +9238,13 @@
         <v>54974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -9226,13 +9253,13 @@
         <v>37177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -9241,13 +9268,13 @@
         <v>92151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,7 +9348,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9351,7 +9378,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9393,13 @@
         <v>257784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>279</v>
@@ -9381,13 +9408,13 @@
         <v>305424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>529</v>
@@ -9396,13 +9423,13 @@
         <v>563208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9444,13 @@
         <v>17881</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -9432,13 +9459,13 @@
         <v>18053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -9447,13 +9474,13 @@
         <v>35934</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9468,13 +9495,13 @@
         <v>12590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9483,13 +9510,13 @@
         <v>7790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>481</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9498,13 +9525,13 @@
         <v>20379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,13 +9546,13 @@
         <v>81710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -9534,13 +9561,13 @@
         <v>56016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -9549,13 +9576,13 @@
         <v>137726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>491</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,7 +9656,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9644,7 +9671,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9659,7 +9686,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,13 +9701,13 @@
         <v>130291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>498</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9689,13 +9716,13 @@
         <v>163169</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -9704,13 +9731,13 @@
         <v>293460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9725,13 +9752,13 @@
         <v>12003</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -9740,13 +9767,13 @@
         <v>12425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -9755,13 +9782,13 @@
         <v>24428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,13 +9803,13 @@
         <v>20889</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -9791,13 +9818,13 @@
         <v>13084</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -9806,13 +9833,13 @@
         <v>33973</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,13 +9854,13 @@
         <v>48038</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -9842,13 +9869,13 @@
         <v>29910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9857,13 +9884,13 @@
         <v>77948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>517</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,7 +9964,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9952,7 +9979,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9982,13 +10009,13 @@
         <v>155621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H35" s="7">
         <v>186</v>
@@ -9997,13 +10024,13 @@
         <v>197547</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M35" s="7">
         <v>342</v>
@@ -10012,13 +10039,13 @@
         <v>353167</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10033,13 +10060,13 @@
         <v>26543</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -10048,13 +10075,13 @@
         <v>22289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>305</v>
+        <v>518</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -10063,13 +10090,13 @@
         <v>48832</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10084,13 +10111,13 @@
         <v>29334</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -10099,13 +10126,13 @@
         <v>26225</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -10114,13 +10141,13 @@
         <v>55560</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10135,13 +10162,13 @@
         <v>51626</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="H38" s="7">
         <v>27</v>
@@ -10150,13 +10177,13 @@
         <v>27054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>136</v>
+        <v>544</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M38" s="7">
         <v>76</v>
@@ -10165,13 +10192,13 @@
         <v>78679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,7 +10272,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10290,13 +10317,13 @@
         <v>296632</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="H41" s="7">
         <v>372</v>
@@ -10305,13 +10332,13 @@
         <v>406428</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M41" s="7">
         <v>639</v>
@@ -10320,13 +10347,13 @@
         <v>703060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10341,13 +10368,13 @@
         <v>142537</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H42" s="7">
         <v>125</v>
@@ -10356,13 +10383,13 @@
         <v>129907</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -10371,13 +10398,13 @@
         <v>272444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10392,13 +10419,13 @@
         <v>89400</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>570</v>
+        <v>451</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -10407,13 +10434,13 @@
         <v>58381</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>574</v>
+        <v>271</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M43" s="7">
         <v>135</v>
@@ -10422,13 +10449,13 @@
         <v>147782</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10443,13 +10470,13 @@
         <v>127989</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -10458,13 +10485,13 @@
         <v>96578</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M44" s="7">
         <v>202</v>
@@ -10473,13 +10500,13 @@
         <v>224566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>587</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10568,7 +10595,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -10598,13 +10625,13 @@
         <v>449646</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="H47" s="7">
         <v>524</v>
@@ -10613,13 +10640,13 @@
         <v>585696</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="M47" s="7">
         <v>959</v>
@@ -10628,13 +10655,13 @@
         <v>1035342</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10649,13 +10676,13 @@
         <v>24437</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -10664,13 +10691,13 @@
         <v>35959</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>600</v>
+        <v>245</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>168</v>
+        <v>609</v>
       </c>
       <c r="M48" s="7">
         <v>59</v>
@@ -10679,13 +10706,13 @@
         <v>60396</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>498</v>
+        <v>610</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10700,13 +10727,13 @@
         <v>52955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H49" s="7">
         <v>38</v>
@@ -10715,13 +10742,13 @@
         <v>40000</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M49" s="7">
         <v>90</v>
@@ -10730,13 +10757,13 @@
         <v>92955</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>607</v>
+        <v>130</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10751,13 +10778,13 @@
         <v>251545</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="H50" s="7">
         <v>157</v>
@@ -10766,13 +10793,13 @@
         <v>164512</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>613</v>
+        <v>422</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="M50" s="7">
         <v>397</v>
@@ -10781,13 +10808,13 @@
         <v>416058</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10906,13 +10933,13 @@
         <v>1972028</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H53" s="7">
         <v>2325</v>
@@ -10921,13 +10948,13 @@
         <v>2507370</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="M53" s="7">
         <v>4233</v>
@@ -10936,13 +10963,13 @@
         <v>4479398</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>624</v>
+        <v>120</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10957,13 +10984,13 @@
         <v>343595</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="H54" s="7">
         <v>293</v>
@@ -10972,13 +10999,13 @@
         <v>297688</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="M54" s="7">
         <v>606</v>
@@ -10987,13 +11014,13 @@
         <v>641283</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>633</v>
+        <v>516</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>635</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11008,13 +11035,13 @@
         <v>304222</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>197</v>
+        <v>643</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>442</v>
+        <v>644</v>
       </c>
       <c r="H55" s="7">
         <v>219</v>
@@ -11023,13 +11050,13 @@
         <v>222067</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>139</v>
+        <v>647</v>
       </c>
       <c r="M55" s="7">
         <v>505</v>
@@ -11038,13 +11065,13 @@
         <v>526290</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>407</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11059,13 +11086,13 @@
         <v>774505</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="H56" s="7">
         <v>501</v>
@@ -11074,13 +11101,13 @@
         <v>517416</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>448</v>
+        <v>654</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="M56" s="7">
         <v>1225</v>
@@ -11089,13 +11116,13 @@
         <v>1291921</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>645</v>
+        <v>490</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11175,7 +11202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D37A78-AF56-4219-B6F8-3B115C512DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED71B08-1BD9-4BAC-8C42-53F549712545}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11192,7 +11219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11302,7 +11329,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -11332,7 +11359,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -11356,7 +11383,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -11386,7 +11413,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11407,7 +11434,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -11437,7 +11464,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11458,7 +11485,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -11488,7 +11515,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11509,7 +11536,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -11539,7 +11566,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11625,7 +11652,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -11640,7 +11667,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -11679,7 +11706,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -11694,7 +11721,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11730,7 +11757,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11745,7 +11772,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11781,7 +11808,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11796,7 +11823,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11832,7 +11859,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11847,7 +11874,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11948,7 +11975,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -12002,7 +12029,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12053,7 +12080,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12104,7 +12131,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12155,7 +12182,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12226,7 +12253,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -12256,7 +12283,7 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -12280,7 +12307,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>658</v>
+        <v>234</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -12310,7 +12337,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12331,7 +12358,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>234</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12361,7 +12388,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12382,7 +12409,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>658</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12412,7 +12439,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12433,7 +12460,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>658</v>
+        <v>234</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12463,7 +12490,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12534,7 +12561,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -12549,7 +12576,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -12564,7 +12591,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -12588,7 +12615,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -12603,7 +12630,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -12618,7 +12645,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12639,7 +12666,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -12654,7 +12681,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -12669,7 +12696,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12690,7 +12717,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12705,7 +12732,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12720,7 +12747,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12741,7 +12768,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12756,7 +12783,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12771,7 +12798,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12842,7 +12869,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -12857,7 +12884,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -12872,7 +12899,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -12896,7 +12923,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12911,7 +12938,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -12926,7 +12953,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12947,7 +12974,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12962,7 +12989,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -12977,7 +13004,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12998,7 +13025,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -13013,7 +13040,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -13028,7 +13055,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13049,7 +13076,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -13064,7 +13091,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -13079,7 +13106,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13180,7 +13207,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -13234,7 +13261,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13285,7 +13312,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13336,7 +13363,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13387,7 +13414,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13458,7 +13485,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>19</v>
@@ -13473,7 +13500,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>19</v>
@@ -13488,7 +13515,7 @@
         <v>17</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>19</v>
@@ -13512,7 +13539,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -13527,7 +13554,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -13542,7 +13569,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13563,7 +13590,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -13578,7 +13605,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -13593,7 +13620,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13614,7 +13641,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13629,7 +13656,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -13644,7 +13671,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13665,7 +13692,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13680,7 +13707,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -13695,7 +13722,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13781,7 +13808,7 @@
         <v>17</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -13796,7 +13823,7 @@
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>19</v>
@@ -13835,7 +13862,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -13850,7 +13877,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13886,7 +13913,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -13901,7 +13928,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13937,7 +13964,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -13952,7 +13979,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13988,7 +14015,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -14003,7 +14030,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7707BAB-D9E4-41F2-AE43-D2AA5DA34A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC683A53-44B2-4439-93D0-3B62FA700DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CDC684E-2799-4478-83EF-D19950A909C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E394286-E566-4DB2-B409-0EAA8F741AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="690">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -272,28 +272,28 @@
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>3,79%</t>
@@ -302,16 +302,16 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -320,1729 +320,1735 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>5,44%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -2514,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D003A89-E4D5-4E2F-A3E2-235DEBB7B97D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6AABEA-4ED5-4A83-B1CD-90E14A5EEF97}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5150,7 +5156,7 @@
         <v>3214</v>
       </c>
       <c r="D53" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>17</v>
@@ -5180,7 +5186,7 @@
         <v>6511</v>
       </c>
       <c r="N53" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>17</v>
@@ -5354,7 +5360,7 @@
         <v>3214</v>
       </c>
       <c r="D57" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>19</v>
@@ -5384,7 +5390,7 @@
         <v>6511</v>
       </c>
       <c r="N57" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>
@@ -5422,7 +5428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E37B18-5916-415D-9E76-F66025CFC199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4CA3CC-FFF6-455D-BCB0-C2C46979B292}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5974,10 +5980,10 @@
         <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5986,13 +5992,13 @@
         <v>21059</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6001,13 +6007,13 @@
         <v>39515</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6028,13 @@
         <v>132619</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -6037,13 +6043,13 @@
         <v>79775</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -6052,13 +6058,13 @@
         <v>212393</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6138,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6147,7 +6153,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6177,13 +6183,13 @@
         <v>184605</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -6192,13 +6198,13 @@
         <v>268844</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6207,13 +6213,13 @@
         <v>453449</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6234,13 @@
         <v>16169</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6243,13 +6249,13 @@
         <v>11002</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -6258,13 +6264,13 @@
         <v>27171</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6285,13 @@
         <v>22002</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6294,13 +6300,13 @@
         <v>12945</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6309,13 +6315,13 @@
         <v>34946</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6336,13 @@
         <v>101270</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6345,13 +6351,13 @@
         <v>48229</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -6360,13 +6366,13 @@
         <v>149500</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6491,13 @@
         <v>407975</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>459</v>
@@ -6500,13 +6506,13 @@
         <v>493141</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -6515,13 +6521,13 @@
         <v>901116</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6542,13 @@
         <v>41593</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -6551,13 +6557,13 @@
         <v>34667</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -6566,13 +6572,13 @@
         <v>76260</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6593,13 @@
         <v>38871</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -6602,13 +6608,13 @@
         <v>24263</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -6617,13 +6623,13 @@
         <v>63134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6644,13 @@
         <v>180281</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -6653,13 +6659,13 @@
         <v>124125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -6668,13 +6674,13 @@
         <v>304406</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6763,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6793,13 +6799,13 @@
         <v>132351</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -6808,13 +6814,13 @@
         <v>165035</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>282</v>
@@ -6823,13 +6829,13 @@
         <v>297386</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6850,13 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6859,13 +6865,13 @@
         <v>21219</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -6874,13 +6880,13 @@
         <v>38268</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6901,13 @@
         <v>13636</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6910,13 +6916,13 @@
         <v>12902</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -6925,13 +6931,13 @@
         <v>26538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6952,13 @@
         <v>49583</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6961,13 +6967,13 @@
         <v>20435</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>65</v>
@@ -6976,13 +6982,13 @@
         <v>70017</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7101,13 +7107,13 @@
         <v>162973</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H35" s="7">
         <v>219</v>
@@ -7116,13 +7122,13 @@
         <v>226662</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>377</v>
@@ -7131,13 +7137,13 @@
         <v>389635</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,10 +7161,10 @@
         <v>88</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -7167,13 +7173,13 @@
         <v>5039</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7185,10 +7191,10 @@
         <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7209,13 @@
         <v>20707</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -7218,13 +7224,13 @@
         <v>6136</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -7233,13 +7239,13 @@
         <v>26843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7260,13 @@
         <v>82531</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>39</v>
@@ -7269,13 +7275,13 @@
         <v>42193</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>116</v>
@@ -7284,13 +7290,13 @@
         <v>124725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,7 +7400,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7415,13 @@
         <v>401660</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H41" s="7">
         <v>475</v>
@@ -7424,13 +7430,13 @@
         <v>521579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>849</v>
@@ -7439,13 +7445,13 @@
         <v>923239</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7466,13 @@
         <v>37506</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -7475,13 +7481,13 @@
         <v>30114</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -7490,13 +7496,13 @@
         <v>67620</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P42" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q42" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7517,13 @@
         <v>42738</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H43" s="7">
         <v>35</v>
@@ -7526,13 +7532,13 @@
         <v>37638</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -7541,13 +7547,13 @@
         <v>80376</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7568,13 @@
         <v>180884</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -7577,13 +7583,13 @@
         <v>104522</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>269</v>
@@ -7592,13 +7598,13 @@
         <v>285407</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,7 +7678,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7687,7 +7693,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7717,13 +7723,13 @@
         <v>423030</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H47" s="7">
         <v>527</v>
@@ -7732,13 +7738,13 @@
         <v>570399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M47" s="7">
         <v>913</v>
@@ -7747,13 +7753,13 @@
         <v>993429</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7774,13 @@
         <v>44788</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -7783,13 +7789,13 @@
         <v>37550</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -7798,13 +7804,13 @@
         <v>82338</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7825,13 @@
         <v>58769</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7834,13 +7840,13 @@
         <v>43084</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M49" s="7">
         <v>93</v>
@@ -7849,13 +7855,13 @@
         <v>101853</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7876,13 @@
         <v>252511</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H50" s="7">
         <v>158</v>
@@ -7885,10 +7891,10 @@
         <v>172820</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>317</v>
+        <v>109</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>318</v>
@@ -8058,10 +8064,10 @@
         <v>328</v>
       </c>
       <c r="P53" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8082,13 @@
         <v>184033</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H54" s="7">
         <v>138</v>
@@ -8091,10 +8097,10 @@
         <v>154458</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>334</v>
@@ -8106,7 +8112,7 @@
         <v>338491</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>335</v>
@@ -8142,13 +8148,13 @@
         <v>158026</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M55" s="7">
         <v>351</v>
@@ -8160,10 +8166,10 @@
         <v>342</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,7 +8300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FCA463-B414-42A2-9EDB-1F9BB85AB7CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E213583-93DE-425F-937B-2696A2C9B55D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8589,10 +8595,10 @@
         <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -8601,13 +8607,13 @@
         <v>43204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,13 +8628,13 @@
         <v>66897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -8637,13 +8643,13 @@
         <v>46733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -8652,13 +8658,13 @@
         <v>113630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,13 +8783,13 @@
         <v>332278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -8792,13 +8798,13 @@
         <v>409404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>693</v>
@@ -8807,13 +8813,13 @@
         <v>741682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,13 +8834,13 @@
         <v>38830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8843,13 +8849,13 @@
         <v>28627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -8858,13 +8864,13 @@
         <v>67458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,13 +8885,13 @@
         <v>39740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -8894,13 +8900,13 @@
         <v>25617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -8909,13 +8915,13 @@
         <v>65357</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>413</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8930,13 +8936,13 @@
         <v>91727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -8945,13 +8951,13 @@
         <v>59436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -8960,13 +8966,13 @@
         <v>151163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,7 +9061,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9070,7 +9076,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9085,13 +9091,13 @@
         <v>192181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -9100,13 +9106,13 @@
         <v>251976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -9115,13 +9121,13 @@
         <v>444157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,13 +9142,13 @@
         <v>30673</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9151,13 +9157,13 @@
         <v>20812</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>438</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -9166,13 +9172,13 @@
         <v>51485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9193,7 +9199,7 @@
         <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -9202,13 +9208,13 @@
         <v>26345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -9217,13 +9223,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9241,10 +9247,10 @@
         <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -9253,13 +9259,13 @@
         <v>37177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -9268,13 +9274,13 @@
         <v>92151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,7 +9354,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9378,7 +9384,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9393,7 +9399,7 @@
         <v>257784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>459</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>460</v>
@@ -9465,7 +9471,7 @@
         <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>275</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -9474,13 +9480,13 @@
         <v>35934</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9495,13 +9501,13 @@
         <v>12590</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9510,13 +9516,13 @@
         <v>7790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>481</v>
+        <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9525,13 +9531,13 @@
         <v>20379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>479</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,13 +9552,13 @@
         <v>81710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -9561,13 +9567,13 @@
         <v>56016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -9576,13 +9582,13 @@
         <v>137726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,7 +9662,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9671,7 +9677,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9686,7 +9692,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,13 +9707,13 @@
         <v>130291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>498</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9716,13 +9722,13 @@
         <v>163169</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -9731,13 +9737,13 @@
         <v>293460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9758,13 @@
         <v>12003</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>506</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -9767,13 +9773,13 @@
         <v>12425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>300</v>
+        <v>503</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -9782,13 +9788,13 @@
         <v>24428</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,13 +9809,13 @@
         <v>20889</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -9818,13 +9824,13 @@
         <v>13084</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -9833,13 +9839,13 @@
         <v>33973</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,13 +9860,13 @@
         <v>48038</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -9869,13 +9875,13 @@
         <v>29910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9884,13 +9890,13 @@
         <v>77948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>367</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9964,7 +9970,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9979,7 +9985,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10009,13 +10015,13 @@
         <v>155621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>186</v>
@@ -10024,13 +10030,13 @@
         <v>197547</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M35" s="7">
         <v>342</v>
@@ -10039,13 +10045,13 @@
         <v>353167</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10060,13 +10066,13 @@
         <v>26543</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -10075,13 +10081,13 @@
         <v>22289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>518</v>
+        <v>273</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -10090,13 +10096,13 @@
         <v>48832</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10111,13 +10117,13 @@
         <v>29334</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -10126,13 +10132,13 @@
         <v>26225</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -10141,13 +10147,13 @@
         <v>55560</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10162,13 +10168,13 @@
         <v>51626</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H38" s="7">
         <v>27</v>
@@ -10177,13 +10183,13 @@
         <v>27054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M38" s="7">
         <v>76</v>
@@ -10192,13 +10198,13 @@
         <v>78679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>561</v>
+        <v>457</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10317,13 +10323,13 @@
         <v>296632</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H41" s="7">
         <v>372</v>
@@ -10332,13 +10338,13 @@
         <v>406428</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M41" s="7">
         <v>639</v>
@@ -10347,13 +10353,13 @@
         <v>703060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10368,13 +10374,13 @@
         <v>142537</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>573</v>
+        <v>453</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H42" s="7">
         <v>125</v>
@@ -10383,13 +10389,13 @@
         <v>129907</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -10398,13 +10404,13 @@
         <v>272444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10419,13 +10425,13 @@
         <v>89400</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>451</v>
+        <v>578</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -10434,13 +10440,13 @@
         <v>58381</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>271</v>
+        <v>556</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M43" s="7">
         <v>135</v>
@@ -10449,13 +10455,13 @@
         <v>147782</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10470,13 +10476,13 @@
         <v>127989</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -10485,13 +10491,13 @@
         <v>96578</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M44" s="7">
         <v>202</v>
@@ -10500,13 +10506,13 @@
         <v>224566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>147</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10595,7 +10601,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -10625,13 +10631,13 @@
         <v>449646</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H47" s="7">
         <v>524</v>
@@ -10640,13 +10646,13 @@
         <v>585696</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M47" s="7">
         <v>959</v>
@@ -10655,13 +10661,13 @@
         <v>1035342</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10676,13 +10682,13 @@
         <v>24437</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>608</v>
+        <v>302</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -10691,13 +10697,13 @@
         <v>35959</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>132</v>
+        <v>606</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>245</v>
+        <v>607</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>609</v>
+        <v>126</v>
       </c>
       <c r="M48" s="7">
         <v>59</v>
@@ -10706,13 +10712,13 @@
         <v>60396</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,13 +10733,13 @@
         <v>52955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H49" s="7">
         <v>38</v>
@@ -10742,13 +10748,13 @@
         <v>40000</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>616</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M49" s="7">
         <v>90</v>
@@ -10757,13 +10763,13 @@
         <v>92955</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>90</v>
+        <v>616</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10778,13 +10784,13 @@
         <v>251545</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H50" s="7">
         <v>157</v>
@@ -10793,13 +10799,13 @@
         <v>164512</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="L50" s="7" t="s">
-        <v>623</v>
+        <v>383</v>
       </c>
       <c r="M50" s="7">
         <v>397</v>
@@ -10808,13 +10814,13 @@
         <v>416058</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10933,13 +10939,13 @@
         <v>1972028</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H53" s="7">
         <v>2325</v>
@@ -10948,13 +10954,13 @@
         <v>2507370</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="M53" s="7">
         <v>4233</v>
@@ -10963,7 +10969,7 @@
         <v>4479398</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>120</v>
+        <v>632</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>633</v>
@@ -10987,10 +10993,10 @@
         <v>635</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H54" s="7">
         <v>293</v>
@@ -10999,13 +11005,13 @@
         <v>297688</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="M54" s="7">
         <v>606</v>
@@ -11014,13 +11020,13 @@
         <v>641283</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>516</v>
+        <v>640</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>641</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11035,13 +11041,13 @@
         <v>304222</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H55" s="7">
         <v>219</v>
@@ -11050,13 +11056,13 @@
         <v>222067</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M55" s="7">
         <v>505</v>
@@ -11065,13 +11071,13 @@
         <v>526290</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>650</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11086,10 +11092,10 @@
         <v>774505</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>651</v>
+        <v>351</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>652</v>
@@ -11116,13 +11122,13 @@
         <v>1291921</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>490</v>
+        <v>656</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,7 +11208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED71B08-1BD9-4BAC-8C42-53F549712545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C8E1A-5A2A-4733-A3FF-3C93F25C067D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11219,7 +11225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11329,7 +11335,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -11359,7 +11365,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -11383,7 +11389,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -11413,7 +11419,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11434,7 +11440,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -11464,7 +11470,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11485,7 +11491,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -11515,7 +11521,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11536,7 +11542,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -11566,7 +11572,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11652,7 +11658,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -11667,7 +11673,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -11706,7 +11712,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -11721,7 +11727,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11757,7 +11763,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11772,7 +11778,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11808,7 +11814,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11823,7 +11829,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11859,7 +11865,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11874,7 +11880,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11975,7 +11981,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -12029,7 +12035,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12080,7 +12086,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12131,7 +12137,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12182,7 +12188,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12253,7 +12259,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -12283,7 +12289,7 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -12307,7 +12313,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -12337,7 +12343,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12358,7 +12364,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12388,7 +12394,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12409,7 +12415,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12439,7 +12445,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12460,7 +12466,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>669</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12490,7 +12496,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12561,7 +12567,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -12576,7 +12582,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -12591,7 +12597,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -12630,7 +12636,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -12645,7 +12651,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12681,7 +12687,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -12696,7 +12702,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12732,7 +12738,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12747,7 +12753,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12783,7 +12789,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12798,7 +12804,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12869,7 +12875,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -12884,7 +12890,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -12899,7 +12905,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -12923,7 +12929,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12938,7 +12944,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -12953,7 +12959,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12974,7 +12980,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12989,7 +12995,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -13004,7 +13010,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13025,7 +13031,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -13040,7 +13046,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -13055,7 +13061,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13076,7 +13082,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -13091,7 +13097,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -13106,7 +13112,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13207,7 +13213,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -13261,7 +13267,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13312,7 +13318,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13363,7 +13369,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13414,7 +13420,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13485,7 +13491,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>19</v>
@@ -13500,7 +13506,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>19</v>
@@ -13515,7 +13521,7 @@
         <v>17</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>19</v>
@@ -13539,7 +13545,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -13554,7 +13560,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -13569,7 +13575,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13590,7 +13596,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -13605,7 +13611,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -13620,7 +13626,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13641,7 +13647,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13656,7 +13662,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -13671,7 +13677,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13692,7 +13698,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13707,7 +13713,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -13722,7 +13728,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13808,7 +13814,7 @@
         <v>17</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -13817,13 +13823,13 @@
         <v>8743</v>
       </c>
       <c r="N52" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>19</v>
@@ -13862,7 +13868,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -13877,7 +13883,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13913,7 +13919,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -13928,7 +13934,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13964,7 +13970,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -13979,7 +13985,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14015,7 +14021,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -14030,7 +14036,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14072,7 +14078,7 @@
         <v>8743</v>
       </c>
       <c r="N57" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC683A53-44B2-4439-93D0-3B62FA700DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{948067E8-FB91-46EE-8108-28BFBCC93706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E394286-E566-4DB2-B409-0EAA8F741AB5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C61A1A-DC88-409D-B969-D1C281BFC7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="679">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -272,1750 +272,1717 @@
     <t>66,33%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>19,71%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2520,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6AABEA-4ED5-4A83-B1CD-90E14A5EEF97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A25C011-9B93-4DE2-9514-2A6699382BBC}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5156,7 +5123,7 @@
         <v>3214</v>
       </c>
       <c r="D53" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>17</v>
@@ -5186,7 +5153,7 @@
         <v>6511</v>
       </c>
       <c r="N53" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>17</v>
@@ -5360,7 +5327,7 @@
         <v>3214</v>
       </c>
       <c r="D57" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>19</v>
@@ -5390,7 +5357,7 @@
         <v>6511</v>
       </c>
       <c r="N57" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>
@@ -5428,7 +5395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4CA3CC-FFF6-455D-BCB0-C2C46979B292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841210C-E9BD-4E4E-8D78-9A7C1CC60CDE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5980,10 +5947,10 @@
         <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5992,13 +5959,13 @@
         <v>21059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6007,13 +5974,13 @@
         <v>39515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +5995,13 @@
         <v>132619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -6043,13 +6010,13 @@
         <v>79775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -6058,13 +6025,13 @@
         <v>212393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6153,7 +6120,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6183,13 +6150,13 @@
         <v>184605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -6198,13 +6165,13 @@
         <v>268844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6213,13 +6180,13 @@
         <v>453449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6201,13 @@
         <v>16169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6249,13 +6216,13 @@
         <v>11002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -6264,13 +6231,13 @@
         <v>27171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6252,13 @@
         <v>22002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6300,13 +6267,13 @@
         <v>12945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6315,13 +6282,13 @@
         <v>34946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6303,13 @@
         <v>101270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6351,13 +6318,13 @@
         <v>48229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -6366,13 +6333,13 @@
         <v>149500</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6443,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6458,13 @@
         <v>407975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>459</v>
@@ -6506,13 +6473,13 @@
         <v>493141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -6521,13 +6488,13 @@
         <v>901116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6509,13 @@
         <v>41593</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -6557,13 +6524,13 @@
         <v>34667</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -6572,13 +6539,13 @@
         <v>76260</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6560,13 @@
         <v>38871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -6608,13 +6575,13 @@
         <v>24263</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -6623,13 +6590,13 @@
         <v>63134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6611,13 @@
         <v>180281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -6659,13 +6626,13 @@
         <v>124125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -6674,13 +6641,13 @@
         <v>304406</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6769,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6799,13 +6766,13 @@
         <v>132351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -6814,13 +6781,13 @@
         <v>165035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>282</v>
@@ -6829,13 +6796,13 @@
         <v>297386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6817,13 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6865,13 +6832,13 @@
         <v>21219</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -6880,13 +6847,13 @@
         <v>38268</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6868,13 @@
         <v>13636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6916,13 +6883,13 @@
         <v>12902</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -6931,13 +6898,13 @@
         <v>26538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6919,13 @@
         <v>49583</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6967,13 +6934,13 @@
         <v>20435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>65</v>
@@ -6982,13 +6949,13 @@
         <v>70017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7029,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7107,13 +7074,13 @@
         <v>162973</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>219</v>
@@ -7122,13 +7089,13 @@
         <v>226662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>377</v>
@@ -7137,13 +7104,13 @@
         <v>389635</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,10 +7128,10 @@
         <v>88</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -7173,13 +7140,13 @@
         <v>5039</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7188,13 +7155,13 @@
         <v>12809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7176,13 @@
         <v>20707</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -7224,13 +7191,13 @@
         <v>6136</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -7239,13 +7206,13 @@
         <v>26843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7227,13 @@
         <v>82531</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>39</v>
@@ -7275,13 +7242,13 @@
         <v>42193</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>116</v>
@@ -7290,13 +7257,13 @@
         <v>124725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7367,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7382,13 @@
         <v>401660</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H41" s="7">
         <v>475</v>
@@ -7430,13 +7397,13 @@
         <v>521579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M41" s="7">
         <v>849</v>
@@ -7445,13 +7412,13 @@
         <v>923239</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7433,13 @@
         <v>37506</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -7481,13 +7448,13 @@
         <v>30114</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -7496,13 +7463,13 @@
         <v>67620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7484,13 @@
         <v>42738</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H43" s="7">
         <v>35</v>
@@ -7532,13 +7499,13 @@
         <v>37638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -7547,13 +7514,13 @@
         <v>80376</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7535,13 @@
         <v>180884</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -7583,13 +7550,13 @@
         <v>104522</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M44" s="7">
         <v>269</v>
@@ -7598,13 +7565,13 @@
         <v>285407</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7693,7 +7660,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7723,13 +7690,13 @@
         <v>423030</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H47" s="7">
         <v>527</v>
@@ -7738,13 +7705,13 @@
         <v>570399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M47" s="7">
         <v>913</v>
@@ -7753,13 +7720,13 @@
         <v>993429</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7741,13 @@
         <v>44788</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -7789,13 +7756,13 @@
         <v>37550</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -7807,10 +7774,10 @@
         <v>305</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,13 +7792,13 @@
         <v>58769</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7840,7 +7807,7 @@
         <v>43084</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>311</v>
@@ -7855,13 +7822,13 @@
         <v>101853</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7843,13 @@
         <v>252511</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H50" s="7">
         <v>158</v>
@@ -7891,13 +7858,13 @@
         <v>172820</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M50" s="7">
         <v>395</v>
@@ -7906,13 +7873,13 @@
         <v>425331</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +7998,13 @@
         <v>2047887</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H53" s="7">
         <v>2463</v>
@@ -8046,13 +8013,13 @@
         <v>2653726</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M53" s="7">
         <v>4376</v>
@@ -8061,13 +8028,13 @@
         <v>4701612</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8049,13 @@
         <v>184033</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H54" s="7">
         <v>138</v>
@@ -8097,13 +8064,13 @@
         <v>154458</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M54" s="7">
         <v>309</v>
@@ -8112,13 +8079,13 @@
         <v>338491</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8100,13 @@
         <v>215180</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H55" s="7">
         <v>149</v>
@@ -8148,13 +8115,13 @@
         <v>158026</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>159</v>
+        <v>343</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="M55" s="7">
         <v>351</v>
@@ -8163,13 +8130,13 @@
         <v>373205</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8151,13 @@
         <v>979680</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H56" s="7">
         <v>548</v>
@@ -8199,13 +8166,13 @@
         <v>592100</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M56" s="7">
         <v>1471</v>
@@ -8214,13 +8181,13 @@
         <v>1571779</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,7 +8267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E213583-93DE-425F-937B-2696A2C9B55D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465478D8-3BEA-4C27-8B6C-385B689861B0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8317,7 +8284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8445,7 +8412,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8460,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,13 +8442,13 @@
         <v>157595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>179</v>
@@ -8490,13 +8457,13 @@
         <v>187728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -8505,13 +8472,13 @@
         <v>345323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8526,13 +8493,13 @@
         <v>50691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -8541,13 +8508,13 @@
         <v>29617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -8556,13 +8523,13 @@
         <v>80308</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,13 +8544,13 @@
         <v>18578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -8592,13 +8559,13 @@
         <v>24626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -8607,13 +8574,13 @@
         <v>43204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8628,13 +8595,13 @@
         <v>66897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -8643,13 +8610,13 @@
         <v>46733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -8658,13 +8625,13 @@
         <v>113630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>389</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,7 +8750,7 @@
         <v>332278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>392</v>
@@ -8834,13 +8801,13 @@
         <v>38830</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8849,13 +8816,13 @@
         <v>28627</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -8864,13 +8831,13 @@
         <v>67458</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8852,13 @@
         <v>39740</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -8900,13 +8867,13 @@
         <v>25617</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -8915,13 +8882,13 @@
         <v>65357</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +8903,13 @@
         <v>91727</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -8951,13 +8918,13 @@
         <v>59436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -8966,7 +8933,7 @@
         <v>151163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>423</v>
@@ -9160,10 +9127,10 @@
         <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>440</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -9172,13 +9139,13 @@
         <v>51485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>441</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,7 +9166,7 @@
         <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -9208,13 +9175,13 @@
         <v>26345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -9223,13 +9190,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9244,13 +9211,13 @@
         <v>54974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -9259,13 +9226,13 @@
         <v>37177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -9274,13 +9241,13 @@
         <v>92151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,7 +9321,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9384,7 +9351,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9366,13 @@
         <v>257784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>279</v>
@@ -9414,13 +9381,13 @@
         <v>305424</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>529</v>
@@ -9429,13 +9396,13 @@
         <v>563208</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9450,13 +9417,13 @@
         <v>17881</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -9465,13 +9432,13 @@
         <v>18053</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -9480,13 +9447,13 @@
         <v>35934</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,13 +9468,13 @@
         <v>12590</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9516,13 +9483,13 @@
         <v>7790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9531,13 +9498,13 @@
         <v>20379</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,13 +9519,13 @@
         <v>81710</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -9567,13 +9534,13 @@
         <v>56016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -9582,13 +9549,13 @@
         <v>137726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,7 +9629,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9677,7 +9644,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9692,7 +9659,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9674,13 @@
         <v>130291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9722,13 +9689,13 @@
         <v>163169</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -9737,13 +9704,13 @@
         <v>293460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>499</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,13 +9725,13 @@
         <v>12003</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>495</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -9773,13 +9740,13 @@
         <v>12425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -9788,13 +9755,13 @@
         <v>24428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>400</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,13 +9776,13 @@
         <v>20889</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -9824,13 +9791,13 @@
         <v>13084</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -9839,13 +9806,13 @@
         <v>33973</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9827,13 @@
         <v>48038</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -9875,13 +9842,13 @@
         <v>29910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9890,13 +9857,13 @@
         <v>77948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9970,7 +9937,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9985,7 +9952,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10015,13 +9982,13 @@
         <v>155621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H35" s="7">
         <v>186</v>
@@ -10030,13 +9997,13 @@
         <v>197547</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M35" s="7">
         <v>342</v>
@@ -10045,13 +10012,13 @@
         <v>353167</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10066,13 +10033,13 @@
         <v>26543</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -10081,13 +10048,13 @@
         <v>22289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>539</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -10096,13 +10063,13 @@
         <v>48832</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10117,13 +10084,13 @@
         <v>29334</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -10132,13 +10099,13 @@
         <v>26225</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -10147,13 +10114,13 @@
         <v>55560</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10168,13 +10135,13 @@
         <v>51626</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="H38" s="7">
         <v>27</v>
@@ -10183,13 +10150,13 @@
         <v>27054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>556</v>
+        <v>136</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="M38" s="7">
         <v>76</v>
@@ -10198,13 +10165,13 @@
         <v>78679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10278,7 +10245,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10323,13 +10290,13 @@
         <v>296632</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="H41" s="7">
         <v>372</v>
@@ -10338,13 +10305,13 @@
         <v>406428</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="M41" s="7">
         <v>639</v>
@@ -10353,13 +10320,13 @@
         <v>703060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10374,13 +10341,13 @@
         <v>142537</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H42" s="7">
         <v>125</v>
@@ -10389,13 +10356,13 @@
         <v>129907</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -10404,13 +10371,13 @@
         <v>272444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10425,13 +10392,13 @@
         <v>89400</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -10440,13 +10407,13 @@
         <v>58381</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M43" s="7">
         <v>135</v>
@@ -10455,13 +10422,13 @@
         <v>147782</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10476,13 +10443,13 @@
         <v>127989</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -10491,13 +10458,13 @@
         <v>96578</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="M44" s="7">
         <v>202</v>
@@ -10506,13 +10473,13 @@
         <v>224566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10601,7 +10568,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -10631,13 +10598,13 @@
         <v>449646</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H47" s="7">
         <v>524</v>
@@ -10646,13 +10613,13 @@
         <v>585696</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M47" s="7">
         <v>959</v>
@@ -10661,13 +10628,13 @@
         <v>1035342</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10682,13 +10649,13 @@
         <v>24437</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>302</v>
+        <v>599</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -10697,13 +10664,13 @@
         <v>35959</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>606</v>
+        <v>339</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="M48" s="7">
         <v>59</v>
@@ -10712,13 +10679,13 @@
         <v>60396</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>608</v>
+        <v>467</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10733,13 +10700,13 @@
         <v>52955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="H49" s="7">
         <v>38</v>
@@ -10748,13 +10715,13 @@
         <v>40000</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>343</v>
+        <v>604</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M49" s="7">
         <v>90</v>
@@ -10763,13 +10730,13 @@
         <v>92955</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>616</v>
+        <v>276</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10784,13 +10751,13 @@
         <v>251545</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H50" s="7">
         <v>157</v>
@@ -10799,13 +10766,13 @@
         <v>164512</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>383</v>
+        <v>614</v>
       </c>
       <c r="M50" s="7">
         <v>397</v>
@@ -10814,13 +10781,13 @@
         <v>416058</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10939,13 +10906,13 @@
         <v>1972028</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H53" s="7">
         <v>2325</v>
@@ -10954,13 +10921,13 @@
         <v>2507370</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M53" s="7">
         <v>4233</v>
@@ -10969,13 +10936,13 @@
         <v>4479398</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10990,13 +10957,13 @@
         <v>343595</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H54" s="7">
         <v>293</v>
@@ -11005,13 +10972,13 @@
         <v>297688</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="M54" s="7">
         <v>606</v>
@@ -11020,13 +10987,13 @@
         <v>641283</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11041,13 +11008,13 @@
         <v>304222</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>644</v>
+        <v>197</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>645</v>
+        <v>442</v>
       </c>
       <c r="H55" s="7">
         <v>219</v>
@@ -11056,13 +11023,13 @@
         <v>222067</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>648</v>
+        <v>139</v>
       </c>
       <c r="M55" s="7">
         <v>505</v>
@@ -11071,13 +11038,13 @@
         <v>526290</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11092,13 +11059,13 @@
         <v>774505</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>351</v>
+        <v>641</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H56" s="7">
         <v>501</v>
@@ -11107,13 +11074,13 @@
         <v>517416</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>654</v>
+        <v>448</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="M56" s="7">
         <v>1225</v>
@@ -11122,13 +11089,13 @@
         <v>1291921</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11208,7 +11175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C8E1A-5A2A-4733-A3FF-3C93F25C067D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3357DE1A-44C5-4A03-B35D-1CE7C0A68E62}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11225,7 +11192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11335,7 +11302,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -11365,7 +11332,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -11419,7 +11386,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11470,7 +11437,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11521,7 +11488,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11572,7 +11539,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11658,7 +11625,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -11673,7 +11640,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -11712,7 +11679,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -11727,7 +11694,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11763,7 +11730,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11778,7 +11745,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11814,7 +11781,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11829,7 +11796,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11865,7 +11832,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11880,7 +11847,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11981,7 +11948,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -12035,7 +12002,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12086,7 +12053,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12137,7 +12104,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12188,7 +12155,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12259,7 +12226,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -12289,7 +12256,7 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -12313,7 +12280,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -12343,7 +12310,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12364,7 +12331,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12394,7 +12361,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12415,7 +12382,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12445,7 +12412,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12466,7 +12433,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12496,7 +12463,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12567,7 +12534,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -12582,7 +12549,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -12597,7 +12564,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -12621,7 +12588,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -12636,7 +12603,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -12651,7 +12618,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12672,7 +12639,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -12687,7 +12654,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -12702,7 +12669,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12723,7 +12690,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12738,7 +12705,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12753,7 +12720,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12774,7 +12741,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12789,7 +12756,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12804,7 +12771,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12875,7 +12842,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -12890,7 +12857,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -12905,7 +12872,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -12929,7 +12896,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12944,7 +12911,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -12959,7 +12926,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12980,7 +12947,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12995,7 +12962,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -13010,7 +12977,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13031,7 +12998,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -13046,7 +13013,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -13061,7 +13028,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13082,7 +13049,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -13097,7 +13064,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -13112,7 +13079,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13213,7 +13180,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -13267,7 +13234,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13318,7 +13285,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13369,7 +13336,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13420,7 +13387,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13491,7 +13458,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>19</v>
@@ -13506,7 +13473,7 @@
         <v>17</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>19</v>
@@ -13521,7 +13488,7 @@
         <v>17</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>19</v>
@@ -13545,7 +13512,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -13560,7 +13527,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -13575,7 +13542,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13596,7 +13563,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -13611,7 +13578,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -13626,7 +13593,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13647,7 +13614,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13662,7 +13629,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -13677,7 +13644,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13698,7 +13665,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13713,7 +13680,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -13728,7 +13695,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13814,7 +13781,7 @@
         <v>17</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -13823,13 +13790,13 @@
         <v>8743</v>
       </c>
       <c r="N52" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>19</v>
@@ -13868,7 +13835,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -13883,7 +13850,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13919,7 +13886,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -13934,7 +13901,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13970,7 +13937,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -13985,7 +13952,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14021,7 +13988,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -14036,7 +14003,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14078,7 +14045,7 @@
         <v>8743</v>
       </c>
       <c r="N57" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{948067E8-FB91-46EE-8108-28BFBCC93706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FAB669-A14B-4B76-BCDF-3C5DD9A996B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C61A1A-DC88-409D-B969-D1C281BFC7F6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3F630A1-EF70-4862-A09B-2226B43AC0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="679">
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="714">
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>No recogida en edición</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>No Procede</t>
+    <t>No procede</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>ROJO</t>
-  </si>
-  <si>
-    <t>AMARILLO</t>
-  </si>
-  <si>
-    <t>VERDE</t>
+    <t>Exposición psicosocial más desfavorable para la salud</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial intermedia</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial más favorable para la salud</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -260,10 +260,121 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -488,1362 +599,1362 @@
     <t>25,9%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
     <t>4,81%</t>
   </si>
   <si>
@@ -1886,9 +1997,6 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
     <t>23,8%</t>
   </si>
   <si>
@@ -1985,7 +2093,7 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -2037,9 +2145,6 @@
   </si>
   <si>
     <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -2487,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A25C011-9B93-4DE2-9514-2A6699382BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F01A3D-518D-4F01-8C11-C0E91F043B24}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5123,7 +5228,7 @@
         <v>3214</v>
       </c>
       <c r="D53" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>17</v>
@@ -5138,7 +5243,7 @@
         <v>3297</v>
       </c>
       <c r="I53" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>17</v>
@@ -5153,7 +5258,7 @@
         <v>6511</v>
       </c>
       <c r="N53" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>17</v>
@@ -5327,7 +5432,7 @@
         <v>3214</v>
       </c>
       <c r="D57" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>19</v>
@@ -5342,7 +5447,7 @@
         <v>3297</v>
       </c>
       <c r="I57" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>19</v>
@@ -5357,7 +5462,7 @@
         <v>6511</v>
       </c>
       <c r="N57" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>
@@ -5395,7 +5500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841210C-E9BD-4E4E-8D78-9A7C1CC60CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7ADB3-25BF-4622-83DD-9EC685F13446}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,12 +5620,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>74</v>
@@ -5528,28 +5635,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,43 +5669,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D5" s="7">
+        <v>176682</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="I5" s="7">
+        <v>201946</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="N5" s="7">
+        <v>378629</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,43 +5720,49 @@
         <v>22</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27087</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19764</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="N6" s="7">
+        <v>46851</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,43 +5771,49 @@
         <v>23</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14554</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8392</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>22946</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,43 +5822,49 @@
         <v>24</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="7">
+        <v>76415</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="I8" s="7">
+        <v>57142</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="N8" s="7">
+        <v>133557</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,43 +5873,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I9" s="7">
+        <v>287245</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N9" s="7">
+        <v>581983</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5842,13 +5983,13 @@
         <v>335293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -5857,13 +5998,13 @@
         <v>408065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -5872,13 +6013,13 @@
         <v>743358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +6034,13 @@
         <v>19158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -5908,13 +6049,13 @@
         <v>14867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -5923,13 +6064,13 @@
         <v>34025</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +6085,13 @@
         <v>18457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5959,13 +6100,13 @@
         <v>21059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5974,13 +6115,13 @@
         <v>39515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +6136,13 @@
         <v>132619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -6010,13 +6151,13 @@
         <v>79775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>193</v>
@@ -6025,13 +6166,13 @@
         <v>212393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6120,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6150,13 +6291,13 @@
         <v>184605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -6165,13 +6306,13 @@
         <v>268844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6180,13 +6321,13 @@
         <v>453449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6342,13 @@
         <v>16169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -6216,13 +6357,13 @@
         <v>11002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -6231,13 +6372,13 @@
         <v>27171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6393,13 @@
         <v>22002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6267,13 +6408,13 @@
         <v>12945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -6282,13 +6423,13 @@
         <v>34946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6444,13 @@
         <v>101270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6318,13 +6459,13 @@
         <v>48229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -6333,13 +6474,13 @@
         <v>149500</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,7 +6554,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6428,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6443,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,49 +6593,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="D23" s="7">
-        <v>407975</v>
+        <v>231293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H23" s="7">
-        <v>459</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>493141</v>
+        <v>291195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
-        <v>840</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>901116</v>
+        <v>522487</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,49 +6644,49 @@
         <v>22</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>41593</v>
+        <v>14506</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>34667</v>
+        <v>14903</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>76260</v>
+        <v>29408</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,49 +6695,49 @@
         <v>23</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>38871</v>
+        <v>24317</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>24263</v>
+        <v>15871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>63134</v>
+        <v>40188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,49 +6746,49 @@
         <v>24</v>
       </c>
       <c r="C26" s="7">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>180281</v>
+        <v>103866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H26" s="7">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I26" s="7">
-        <v>124125</v>
+        <v>66983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="N26" s="7">
-        <v>304406</v>
+        <v>170849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,10 +6797,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6671,10 +6812,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6686,10 +6827,10 @@
         <v>19</v>
       </c>
       <c r="M27" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N27" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6721,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6736,7 +6877,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6766,13 +6907,13 @@
         <v>132351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="H29" s="7">
         <v>159</v>
@@ -6781,13 +6922,13 @@
         <v>165035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>282</v>
@@ -6796,13 +6937,13 @@
         <v>297386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6958,13 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6832,13 +6973,13 @@
         <v>21219</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -6847,13 +6988,13 @@
         <v>38268</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +7009,13 @@
         <v>13636</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6883,13 +7024,13 @@
         <v>12902</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -6898,13 +7039,13 @@
         <v>26538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +7060,13 @@
         <v>49583</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6934,13 +7075,13 @@
         <v>20435</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="M32" s="7">
         <v>65</v>
@@ -6949,13 +7090,13 @@
         <v>70017</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7170,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7074,13 +7215,13 @@
         <v>162973</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="H35" s="7">
         <v>219</v>
@@ -7089,13 +7230,13 @@
         <v>226662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="M35" s="7">
         <v>377</v>
@@ -7104,13 +7245,13 @@
         <v>389635</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7266,13 @@
         <v>7770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -7140,13 +7281,13 @@
         <v>5039</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7155,13 +7296,13 @@
         <v>12809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7317,13 @@
         <v>20707</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -7191,13 +7332,13 @@
         <v>6136</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -7206,13 +7347,13 @@
         <v>26843</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7368,13 @@
         <v>82531</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="H38" s="7">
         <v>39</v>
@@ -7242,13 +7383,13 @@
         <v>42193</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="M38" s="7">
         <v>116</v>
@@ -7257,13 +7398,13 @@
         <v>124725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7508,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7523,13 @@
         <v>401660</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="H41" s="7">
         <v>475</v>
@@ -7397,13 +7538,13 @@
         <v>521579</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M41" s="7">
         <v>849</v>
@@ -7412,13 +7553,13 @@
         <v>923239</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7574,13 @@
         <v>37506</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -7448,13 +7589,13 @@
         <v>30114</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -7463,13 +7604,13 @@
         <v>67620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7625,13 @@
         <v>42738</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="H43" s="7">
         <v>35</v>
@@ -7499,13 +7640,13 @@
         <v>37638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -7514,13 +7655,13 @@
         <v>80376</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7676,13 @@
         <v>180884</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -7550,13 +7691,13 @@
         <v>104522</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
         <v>269</v>
@@ -7565,13 +7706,13 @@
         <v>285407</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7786,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7660,7 +7801,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7690,13 +7831,13 @@
         <v>423030</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="H47" s="7">
         <v>527</v>
@@ -7705,13 +7846,13 @@
         <v>570399</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>913</v>
@@ -7720,13 +7861,13 @@
         <v>993429</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7882,13 @@
         <v>44788</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="H48" s="7">
         <v>32</v>
@@ -7756,13 +7897,13 @@
         <v>37550</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -7771,13 +7912,13 @@
         <v>82338</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7933,13 @@
         <v>58769</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H49" s="7">
         <v>40</v>
@@ -7807,13 +7948,13 @@
         <v>43084</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="M49" s="7">
         <v>93</v>
@@ -7822,13 +7963,13 @@
         <v>101853</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7984,13 @@
         <v>252511</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="H50" s="7">
         <v>158</v>
@@ -7858,13 +7999,13 @@
         <v>172820</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="M50" s="7">
         <v>395</v>
@@ -7873,13 +8014,13 @@
         <v>425331</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +8139,13 @@
         <v>2047887</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H53" s="7">
         <v>2463</v>
@@ -8013,13 +8154,13 @@
         <v>2653726</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M53" s="7">
         <v>4376</v>
@@ -8028,13 +8169,13 @@
         <v>4701612</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8190,13 @@
         <v>184033</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H54" s="7">
         <v>138</v>
@@ -8064,13 +8205,13 @@
         <v>154458</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M54" s="7">
         <v>309</v>
@@ -8079,13 +8220,13 @@
         <v>338491</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8241,13 @@
         <v>215180</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="H55" s="7">
         <v>149</v>
@@ -8115,13 +8256,13 @@
         <v>158026</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>173</v>
+        <v>378</v>
       </c>
       <c r="M55" s="7">
         <v>351</v>
@@ -8130,13 +8271,13 @@
         <v>373205</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,13 +8292,13 @@
         <v>979680</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H56" s="7">
         <v>548</v>
@@ -8166,13 +8307,13 @@
         <v>592100</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="M56" s="7">
         <v>1471</v>
@@ -8181,13 +8322,13 @@
         <v>1571779</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465478D8-3BEA-4C27-8B6C-385B689861B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EFBFF4-FDB1-4588-A959-A66A4BFAA930}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8284,7 +8425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8412,7 +8553,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8427,7 +8568,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8583,13 @@
         <v>157595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>179</v>
@@ -8457,13 +8598,13 @@
         <v>187728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -8472,13 +8613,13 @@
         <v>345323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8634,13 @@
         <v>50691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -8508,13 +8649,13 @@
         <v>29617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -8523,13 +8664,13 @@
         <v>80308</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8685,13 @@
         <v>18578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -8559,13 +8700,13 @@
         <v>24626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -8574,13 +8715,13 @@
         <v>43204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,13 +8736,13 @@
         <v>66897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -8610,13 +8751,13 @@
         <v>46733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -8625,13 +8766,13 @@
         <v>113630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8720,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8750,13 +8891,13 @@
         <v>332278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>375</v>
@@ -8765,13 +8906,13 @@
         <v>409404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>693</v>
@@ -8780,13 +8921,13 @@
         <v>741682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,13 +8942,13 @@
         <v>38830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8816,13 +8957,13 @@
         <v>28627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -8831,13 +8972,13 @@
         <v>67458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,13 +8993,13 @@
         <v>39740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -8867,13 +9008,13 @@
         <v>25617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -8882,13 +9023,13 @@
         <v>65357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8903,13 +9044,13 @@
         <v>91727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -8918,13 +9059,13 @@
         <v>59436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -8933,13 +9074,13 @@
         <v>151163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,7 +9169,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9043,7 +9184,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,13 +9199,13 @@
         <v>192181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -9073,13 +9214,13 @@
         <v>251976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -9088,13 +9229,13 @@
         <v>444157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,13 +9250,13 @@
         <v>30673</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -9124,13 +9265,13 @@
         <v>20812</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -9139,13 +9280,13 @@
         <v>51485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>477</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,13 +9301,13 @@
         <v>40736</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -9175,13 +9316,13 @@
         <v>26345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -9190,13 +9331,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9211,13 +9352,13 @@
         <v>54974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -9226,13 +9367,13 @@
         <v>37177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -9241,13 +9382,13 @@
         <v>92151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,7 +9462,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9351,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9507,13 @@
         <v>257784</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>279</v>
@@ -9381,13 +9522,13 @@
         <v>305424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>529</v>
@@ -9396,13 +9537,13 @@
         <v>563208</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9558,13 @@
         <v>17881</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -9432,13 +9573,13 @@
         <v>18053</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -9447,13 +9588,13 @@
         <v>35934</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9468,13 +9609,13 @@
         <v>12590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -9483,13 +9624,13 @@
         <v>7790</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -9498,13 +9639,13 @@
         <v>20379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,13 +9660,13 @@
         <v>81710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -9534,13 +9675,13 @@
         <v>56016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
@@ -9549,13 +9690,13 @@
         <v>137726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,7 +9770,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9644,7 +9785,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9659,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,13 +9815,13 @@
         <v>130291</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -9689,13 +9830,13 @@
         <v>163169</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -9704,13 +9845,13 @@
         <v>293460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9725,13 +9866,13 @@
         <v>12003</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -9740,13 +9881,13 @@
         <v>12425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -9755,13 +9896,13 @@
         <v>24428</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,13 +9917,13 @@
         <v>20889</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -9791,13 +9932,13 @@
         <v>13084</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -9806,13 +9947,13 @@
         <v>33973</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,13 +9968,13 @@
         <v>48038</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -9842,13 +9983,13 @@
         <v>29910</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9857,13 +9998,13 @@
         <v>77948</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,7 +10078,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9952,7 +10093,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9982,13 +10123,13 @@
         <v>155621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="H35" s="7">
         <v>186</v>
@@ -9997,13 +10138,13 @@
         <v>197547</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="M35" s="7">
         <v>342</v>
@@ -10012,13 +10153,13 @@
         <v>353167</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10033,13 +10174,13 @@
         <v>26543</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -10048,13 +10189,13 @@
         <v>22289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -10063,13 +10204,13 @@
         <v>48832</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10084,13 +10225,13 @@
         <v>29334</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -10099,13 +10240,13 @@
         <v>26225</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -10114,13 +10255,13 @@
         <v>55560</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10135,13 +10276,13 @@
         <v>51626</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="H38" s="7">
         <v>27</v>
@@ -10150,13 +10291,13 @@
         <v>27054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="M38" s="7">
         <v>76</v>
@@ -10165,13 +10306,13 @@
         <v>78679</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,7 +10386,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10290,13 +10431,13 @@
         <v>296632</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="H41" s="7">
         <v>372</v>
@@ -10305,13 +10446,13 @@
         <v>406428</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="M41" s="7">
         <v>639</v>
@@ -10320,13 +10461,13 @@
         <v>703060</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10341,13 +10482,13 @@
         <v>142537</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="H42" s="7">
         <v>125</v>
@@ -10356,13 +10497,13 @@
         <v>129907</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -10371,13 +10512,13 @@
         <v>272444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10392,13 +10533,13 @@
         <v>89400</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="H43" s="7">
         <v>57</v>
@@ -10407,13 +10548,13 @@
         <v>58381</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>574</v>
+        <v>200</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="M43" s="7">
         <v>135</v>
@@ -10422,13 +10563,13 @@
         <v>147782</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10443,13 +10584,13 @@
         <v>127989</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -10458,13 +10599,13 @@
         <v>96578</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="M44" s="7">
         <v>202</v>
@@ -10473,13 +10614,13 @@
         <v>224566</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10568,7 +10709,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -10598,13 +10739,13 @@
         <v>449646</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="H47" s="7">
         <v>524</v>
@@ -10613,13 +10754,13 @@
         <v>585696</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="M47" s="7">
         <v>959</v>
@@ -10628,13 +10769,13 @@
         <v>1035342</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10649,13 +10790,13 @@
         <v>24437</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -10664,13 +10805,13 @@
         <v>35959</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>168</v>
+        <v>637</v>
       </c>
       <c r="M48" s="7">
         <v>59</v>
@@ -10679,13 +10820,13 @@
         <v>60396</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10700,13 +10841,13 @@
         <v>52955</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>602</v>
+        <v>639</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="H49" s="7">
         <v>38</v>
@@ -10715,13 +10856,13 @@
         <v>40000</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>604</v>
+        <v>641</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>606</v>
+        <v>643</v>
       </c>
       <c r="M49" s="7">
         <v>90</v>
@@ -10730,13 +10871,13 @@
         <v>92955</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10751,13 +10892,13 @@
         <v>251545</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="H50" s="7">
         <v>157</v>
@@ -10766,13 +10907,13 @@
         <v>164512</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>613</v>
+        <v>650</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="M50" s="7">
         <v>397</v>
@@ -10781,13 +10922,13 @@
         <v>416058</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>615</v>
+        <v>103</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>617</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10906,13 +11047,13 @@
         <v>1972028</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="H53" s="7">
         <v>2325</v>
@@ -10921,13 +11062,13 @@
         <v>2507370</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="M53" s="7">
         <v>4233</v>
@@ -10936,13 +11077,13 @@
         <v>4479398</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10957,13 +11098,13 @@
         <v>343595</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="H54" s="7">
         <v>293</v>
@@ -10972,13 +11113,13 @@
         <v>297688</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="M54" s="7">
         <v>606</v>
@@ -10987,13 +11128,13 @@
         <v>641283</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>633</v>
+        <v>669</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11008,13 +11149,13 @@
         <v>304222</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="H55" s="7">
         <v>219</v>
@@ -11023,13 +11164,13 @@
         <v>222067</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="M55" s="7">
         <v>505</v>
@@ -11038,13 +11179,13 @@
         <v>526290</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11059,13 +11200,13 @@
         <v>774505</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="H56" s="7">
         <v>501</v>
@@ -11074,13 +11215,13 @@
         <v>517416</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="M56" s="7">
         <v>1225</v>
@@ -11089,13 +11230,13 @@
         <v>1291921</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11175,7 +11316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3357DE1A-44C5-4A03-B35D-1CE7C0A68E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390369CB-5241-4558-BEFF-9ACF5BA1F9F4}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11192,7 +11333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11296,13 +11437,13 @@
         <v>331</v>
       </c>
       <c r="D4" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -11311,7 +11452,7 @@
         <v>538</v>
       </c>
       <c r="I4" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
@@ -11326,13 +11467,13 @@
         <v>869</v>
       </c>
       <c r="N4" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -11356,7 +11497,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -11386,7 +11527,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11407,7 +11548,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -11437,7 +11578,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11458,7 +11599,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -11488,7 +11629,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11509,7 +11650,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -11539,7 +11680,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11551,7 +11692,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -11566,7 +11707,7 @@
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -11581,7 +11722,7 @@
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -11604,7 +11745,7 @@
         <v>382</v>
       </c>
       <c r="D10" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -11619,13 +11760,13 @@
         <v>717</v>
       </c>
       <c r="I10" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -11634,13 +11775,13 @@
         <v>1099</v>
       </c>
       <c r="N10" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -11679,7 +11820,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -11694,7 +11835,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11730,7 +11871,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11745,7 +11886,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11781,7 +11922,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -11796,7 +11937,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11832,7 +11973,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -11847,7 +11988,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11859,7 +12000,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -11874,7 +12015,7 @@
         <v>717</v>
       </c>
       <c r="I15" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -11889,7 +12030,7 @@
         <v>1099</v>
       </c>
       <c r="N15" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -11912,7 +12053,7 @@
         <v>360</v>
       </c>
       <c r="D16" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -11927,7 +12068,7 @@
         <v>536</v>
       </c>
       <c r="I16" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>17</v>
@@ -11942,13 +12083,13 @@
         <v>896</v>
       </c>
       <c r="N16" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -12002,7 +12143,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12053,7 +12194,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12104,7 +12245,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12155,7 +12296,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12167,7 +12308,7 @@
         <v>360</v>
       </c>
       <c r="D21" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -12182,7 +12323,7 @@
         <v>536</v>
       </c>
       <c r="I21" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -12197,7 +12338,7 @@
         <v>896</v>
       </c>
       <c r="N21" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -12220,13 +12361,13 @@
         <v>292</v>
       </c>
       <c r="D22" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -12235,7 +12376,7 @@
         <v>599</v>
       </c>
       <c r="I22" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>17</v>
@@ -12250,13 +12391,13 @@
         <v>891</v>
       </c>
       <c r="N22" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -12280,7 +12421,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -12310,7 +12451,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12331,7 +12472,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12361,7 +12502,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12382,7 +12523,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12412,7 +12553,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12433,7 +12574,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12463,7 +12604,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12475,7 +12616,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -12490,7 +12631,7 @@
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -12505,7 +12646,7 @@
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -12528,13 +12669,13 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -12543,13 +12684,13 @@
         <v>495</v>
       </c>
       <c r="I28" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -12558,13 +12699,13 @@
         <v>774</v>
       </c>
       <c r="N28" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -12588,7 +12729,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -12603,7 +12744,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -12618,7 +12759,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12639,7 +12780,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -12654,7 +12795,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -12669,7 +12810,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12690,7 +12831,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12705,7 +12846,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -12720,7 +12861,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12741,7 +12882,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12756,7 +12897,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12771,7 +12912,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12783,7 +12924,7 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>19</v>
@@ -12798,7 +12939,7 @@
         <v>495</v>
       </c>
       <c r="I33" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>19</v>
@@ -12813,7 +12954,7 @@
         <v>774</v>
       </c>
       <c r="N33" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>19</v>
@@ -12836,13 +12977,13 @@
         <v>371</v>
       </c>
       <c r="D34" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
@@ -12851,13 +12992,13 @@
         <v>460</v>
       </c>
       <c r="I34" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -12866,13 +13007,13 @@
         <v>831</v>
       </c>
       <c r="N34" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -12896,7 +13037,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>666</v>
+        <v>187</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12911,7 +13052,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -12926,7 +13067,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12947,7 +13088,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>666</v>
+        <v>187</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -12962,7 +13103,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -12977,7 +13118,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12998,7 +13139,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>666</v>
+        <v>187</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -13013,7 +13154,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -13028,7 +13169,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13049,7 +13190,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>666</v>
+        <v>187</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -13064,7 +13205,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -13079,7 +13220,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13091,7 +13232,7 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -13106,7 +13247,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>19</v>
@@ -13121,7 +13262,7 @@
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -13144,7 +13285,7 @@
         <v>599</v>
       </c>
       <c r="D40" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -13159,7 +13300,7 @@
         <v>960</v>
       </c>
       <c r="I40" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>17</v>
@@ -13174,13 +13315,13 @@
         <v>1559</v>
       </c>
       <c r="N40" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -13234,7 +13375,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13285,7 +13426,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13336,7 +13477,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13387,7 +13528,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13399,7 +13540,7 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -13414,7 +13555,7 @@
         <v>960</v>
       </c>
       <c r="I45" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>19</v>
@@ -13429,7 +13570,7 @@
         <v>1559</v>
       </c>
       <c r="N45" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
@@ -13452,13 +13593,13 @@
         <v>762</v>
       </c>
       <c r="D46" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>19</v>
@@ -13467,13 +13608,13 @@
         <v>1062</v>
       </c>
       <c r="I46" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>19</v>
@@ -13482,13 +13623,13 @@
         <v>1824</v>
       </c>
       <c r="N46" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>19</v>
@@ -13512,7 +13653,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -13527,7 +13668,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -13542,7 +13683,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13563,7 +13704,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -13578,7 +13719,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -13593,7 +13734,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13614,7 +13755,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13629,7 +13770,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -13644,7 +13785,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13665,7 +13806,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13680,7 +13821,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -13695,7 +13836,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13707,7 +13848,7 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -13722,7 +13863,7 @@
         <v>1062</v>
       </c>
       <c r="I51" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>19</v>
@@ -13737,7 +13878,7 @@
         <v>1824</v>
       </c>
       <c r="N51" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>19</v>
@@ -13760,7 +13901,7 @@
         <v>3376</v>
       </c>
       <c r="D52" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>17</v>
@@ -13775,13 +13916,13 @@
         <v>5367</v>
       </c>
       <c r="I52" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -13790,13 +13931,13 @@
         <v>8743</v>
       </c>
       <c r="N52" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>19</v>
@@ -13835,7 +13976,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -13850,7 +13991,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13886,7 +14027,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -13901,7 +14042,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13937,7 +14078,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -13952,7 +14093,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13988,7 +14129,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -14003,7 +14144,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14015,7 +14156,7 @@
         <v>3376</v>
       </c>
       <c r="D57" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>19</v>
@@ -14030,7 +14171,7 @@
         <v>5367</v>
       </c>
       <c r="I57" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>19</v>
@@ -14045,7 +14186,7 @@
         <v>8743</v>
       </c>
       <c r="N57" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>19</v>
